--- a/web/Excel/Solicitudecompras.xlsx
+++ b/web/Excel/Solicitudecompras.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t xml:space="preserve">SERVICIO NACIONAL DE APRENDIZAJE SENA </t>
   </si>
@@ -31,31 +31,31 @@
     <t>CUENTADANTES QUE  TIENEN VINCULO CON LA ENTIDAD</t>
   </si>
   <si>
-    <t>FECHA SOLICITUD:  2021-06-01</t>
-  </si>
-  <si>
-    <t>AREA: ghgh</t>
-  </si>
-  <si>
-    <t>NOMBRE CENTRO DE COSTO: cdti</t>
-  </si>
-  <si>
-    <t>NOMBRE REGIONAL:  regional valle</t>
-  </si>
-  <si>
-    <t>NOMBRE DE JEFE DE OFICINA O COORDINADOR DE AREA: vggcg</t>
-  </si>
-  <si>
-    <t>CEDULA: 567654</t>
-  </si>
-  <si>
-    <t>NOMBRE DE SERVIDOR PÚBLICO A QUIEN SE LE ASIGNARA EL BIEN: vggcg</t>
-  </si>
-  <si>
-    <t>CEDULA: 87756</t>
-  </si>
-  <si>
-    <t>CÓDIGO DE GRUPO O FICHA DE CARACTERIZACIÓN: 2346</t>
+    <t>FECHA SOLICITUD:  2021-06-19</t>
+  </si>
+  <si>
+    <t>AREA: nose</t>
+  </si>
+  <si>
+    <t>NOMBRE CENTRO DE COSTO: CAI</t>
+  </si>
+  <si>
+    <t>NOMBRE REGIONAL:  regional cundinamarca</t>
+  </si>
+  <si>
+    <t>NOMBRE DE JEFE DE OFICINA O COORDINADOR DE AREA: stephany</t>
+  </si>
+  <si>
+    <t>CEDULA: 14421</t>
+  </si>
+  <si>
+    <t>NOMBRE DE SERVIDOR PÚBLICO A QUIEN SE LE ASIGNARA EL BIEN: stephany</t>
+  </si>
+  <si>
+    <t>CEDULA: 2911</t>
+  </si>
+  <si>
+    <t>CÓDIGO DE GRUPO O FICHA DE CARACTERIZACIÓN: 1234567</t>
   </si>
   <si>
     <t>ITEM</t>
@@ -79,7 +79,10 @@
     <t>Mg - miligramo</t>
   </si>
   <si>
-    <t>gfg</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>a menos que se vean en la vista</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE: </t>
@@ -637,7 +640,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="B19" sqref="B19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -806,7 +809,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>18</v>
@@ -815,26 +818,43 @@
         <v>19</v>
       </c>
       <c r="E19" s="13">
-        <v>655</v>
+        <v>10</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="13">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="29" spans="1:6">
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="4"/>
